--- a/Zielhierachie.xlsx
+++ b/Zielhierachie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D0D89A-BA5E-46A4-A8DD-9419DBCFE3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFCAA1-0177-4B2F-A474-9FC443F0CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
   </bookViews>
@@ -720,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC9B02-B111-4E0F-9380-EEF4ECB64375}">
   <dimension ref="B1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I14" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>

--- a/Zielhierachie.xlsx
+++ b/Zielhierachie.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFCAA1-0177-4B2F-A474-9FC443F0CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C70BFC-4687-4CE9-98C4-21EBF007C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zielhierachie" sheetId="1" r:id="rId1"/>
+    <sheet name="Anforderungen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
-  <si>
-    <t>Strategische Ziele</t>
-  </si>
-  <si>
-    <t>Es muss möglich sein sich ein Bild von einer Mittelstadt (20.000-100.000 Einwohner, bsp. Gummersbach) zu bestimmten Zeitperioden zu machen.</t>
-  </si>
-  <si>
-    <t>Das System soll in beliebigen Mittelstädten einsetzbar sein.</t>
-  </si>
-  <si>
-    <t>Es muss eine Community von Menschen mit historischen Artefakten entstehen.</t>
-  </si>
-  <si>
-    <t>Es muss der Uploade von User Content wissenschaftlich verifiziert werden.</t>
-  </si>
-  <si>
-    <t>Es müssen die digitalen historischen Artefakte für wissenschaftlich Interessierte/ Ahnenforscher? Und Bewohner passend dargestellt werden.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Taktische Ziele</t>
   </si>
@@ -262,12 +245,82 @@
   <si>
     <t>System-Anforderung</t>
   </si>
+  <si>
+    <t>Verifikation</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Es soll auf alle kleinen bis mittelgroßen Städten möglich sein, jeweilige historische Artefakte betrachten und suchen zu können.</t>
+  </si>
+  <si>
+    <t>Es muss möglich sein, sich ein Bild von einer kleinen bis mittelgroßen Stadt (20.000-100.000 Einwohner, bsp. Gummersbach) 
+zu bestimmten Zeitperioden zu machen.</t>
+  </si>
+  <si>
+    <t>Darstellung</t>
+  </si>
+  <si>
+    <t>Es müssen die digitalen historischen Artefakte für alle Benutzer passend dargestellt werden.</t>
+  </si>
+  <si>
+    <t>Operative Ziele (weniger als 1 Jahr)</t>
+  </si>
+  <si>
+    <t>Taktische Ziele (1-3 Jahre)</t>
+  </si>
+  <si>
+    <t>Strategische Ziele (ab 3 Jahre)</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>System (Projektziel)</t>
+  </si>
+  <si>
+    <t>Es muss eine Community von Menschen mit historischen Artefakten entstanden sein.</t>
+  </si>
+  <si>
+    <t>Es muss der Upload von User Content wissenschaftlich verifiziert worden sein.</t>
+  </si>
+  <si>
+    <t>Es müssen erste Anfänge einer Community von Menschen mit historischen Artefakten entstanden sein.</t>
+  </si>
+  <si>
+    <t>Die sich aufbauende Community muss gepflegt und vergrößert werden.</t>
+  </si>
+  <si>
+    <t>Es muss eine Grundbasis von ersten Bildern hochgeladen worden sein.</t>
+  </si>
+  <si>
+    <t>Darstellung / Community</t>
+  </si>
+  <si>
+    <t>Es muss die Möglichkeit geben, die Bilder ort- und zeitbezogen einzuordnen.</t>
+  </si>
+  <si>
+    <t>Der Kontext von Bildern und Geschichten zueinander soll verdeutlicht werden.</t>
+  </si>
+  <si>
+    <t>Es muss ein Verifizierungsprozess für das historische Material vorhanden sein.</t>
+  </si>
+  <si>
+    <t>Die User müssen dazu motiviert werden ihr historisches Material zu teilen.</t>
+  </si>
+  <si>
+    <t>Dies kann durch eine Gamification Idee geschehen.  ///// Anreize zur Nutzung soll durch Gamification verstärkt werden</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +353,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -321,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -377,11 +436,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -403,6 +475,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,442 +800,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC9B02-B111-4E0F-9380-EEF4ECB64375}">
-  <dimension ref="B1:D56"/>
+  <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="130.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="2:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B47" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B50" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="2:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+    </row>
+    <row r="52" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB35E821-1322-41A5-9CEB-36F2CEE4860B}">
+  <dimension ref="C5:D50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="128.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="3:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="3:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Zielhierachie.xlsx
+++ b/Zielhierachie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C70BFC-4687-4CE9-98C4-21EBF007C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B95F7A-5988-4ABE-927B-E5191ADA0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zielhierachie" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Taktische Ziele</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Es muss eine Community von Menschen mit historischen Artefakten entstanden sein.</t>
   </si>
   <si>
-    <t>Es muss der Upload von User Content wissenschaftlich verifiziert worden sein.</t>
-  </si>
-  <si>
     <t>Es müssen erste Anfänge einer Community von Menschen mit historischen Artefakten entstanden sein.</t>
   </si>
   <si>
@@ -314,13 +311,43 @@
   </si>
   <si>
     <t>Dies kann durch eine Gamification Idee geschehen.  ///// Anreize zur Nutzung soll durch Gamification verstärkt werden</t>
+  </si>
+  <si>
+    <t>Hochgeladener User Content muss wissenschaftlich verifiziert worden sein.</t>
+  </si>
+  <si>
+    <t>Es müssen Experten gefunden werden, die User Content verifizieren können.</t>
+  </si>
+  <si>
+    <t>System/Darstellung</t>
+  </si>
+  <si>
+    <t>Es muss die Möglichkeit zur Kommunikation und Interaktion unter Usern geben</t>
+  </si>
+  <si>
+    <t>Es muss die Möglichkeit zum Upload von User Content geben</t>
+  </si>
+  <si>
+    <t>Es muss die Möglichkeit geben historisches Material zu verifizieren.</t>
+  </si>
+  <si>
+    <t>Die User müssen dazu motiviert werden in das System/die Community einzusteigen</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Die User müssen motiviert werden weiterhin an dem Community/an dem System teilzuhaben</t>
+  </si>
+  <si>
+    <t>Der Kontext zwischen historischem Artefakten soll ersichtlich sein</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +386,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -380,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -436,19 +469,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -476,19 +496,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,7 +524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -802,13 +822,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC9B02-B111-4E0F-9380-EEF4ECB64375}">
   <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="130.85546875" customWidth="1"/>
+    <col min="2" max="2" width="143.140625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
@@ -826,8 +846,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D3" t="s">
@@ -842,17 +862,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>65</v>
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>52</v>
@@ -870,52 +890,64 @@
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="D12" s="11"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="D15" s="11"/>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -947,105 +979,124 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-    </row>
-    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-    </row>
     <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="15" t="s">
-        <v>74</v>
+      <c r="B46" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
-        <v>73</v>
+      <c r="B47" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B51" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1071,7 +1122,7 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="128.28515625" customWidth="1"/>
   </cols>

--- a/Zielhierachie.xlsx
+++ b/Zielhierachie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Documents\GitHub\EPWS2223HausenKochZimmer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B95F7A-5988-4ABE-927B-E5191ADA0AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F9AA82-668F-485E-8124-FF0856E1C29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7E56030-8F2E-40B7-9477-178C4C9FAE1E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Taktische Ziele</t>
   </si>
@@ -299,18 +299,6 @@
   </si>
   <si>
     <t>Es muss die Möglichkeit geben, die Bilder ort- und zeitbezogen einzuordnen.</t>
-  </si>
-  <si>
-    <t>Der Kontext von Bildern und Geschichten zueinander soll verdeutlicht werden.</t>
-  </si>
-  <si>
-    <t>Es muss ein Verifizierungsprozess für das historische Material vorhanden sein.</t>
-  </si>
-  <si>
-    <t>Die User müssen dazu motiviert werden ihr historisches Material zu teilen.</t>
-  </si>
-  <si>
-    <t>Dies kann durch eine Gamification Idee geschehen.  ///// Anreize zur Nutzung soll durch Gamification verstärkt werden</t>
   </si>
   <si>
     <t>Hochgeladener User Content muss wissenschaftlich verifiziert worden sein.</t>
@@ -822,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45BC9B02-B111-4E0F-9380-EEF4ECB64375}">
   <dimension ref="B1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,7 +860,7 @@
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>52</v>
@@ -900,10 +888,10 @@
     </row>
     <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -924,7 +912,7 @@
     </row>
     <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>52</v>
@@ -932,10 +920,10 @@
     </row>
     <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -984,7 +972,7 @@
         <v>55</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -992,20 +980,20 @@
         <v>69</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -1013,7 +1001,7 @@
     </row>
     <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>52</v>
@@ -1021,7 +1009,7 @@
     </row>
     <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
         <v>62</v>
@@ -1067,37 +1055,25 @@
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="B47" s="16"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="B49" s="16"/>
     </row>
     <row r="50" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>70</v>
-      </c>
+      <c r="B50" s="16"/>
     </row>
     <row r="51" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="16" t="s">
-        <v>5</v>
-      </c>
+      <c r="B51" s="16"/>
     </row>
     <row r="52" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="B52" s="16"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
@@ -1118,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB35E821-1322-41A5-9CEB-36F2CEE4860B}">
   <dimension ref="C5:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
